--- a/data/i_2x2.xlsx
+++ b/data/i_2x2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -126,10 +126,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>0</v>
@@ -143,7 +143,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -152,7 +152,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -180,19 +180,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
